--- a/Data/DataTot.xlsx
+++ b/Data/DataTot.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Documents\Doctorado 2018\MODELOS\GAMS\DETOX BE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Documents\GitHub\FANS\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A975000-8D60-4F47-8B6A-AC7A4AEAC443}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15099DD8-4042-43BE-9672-BB37E0B33928}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="9615" yWindow="135" windowWidth="10875" windowHeight="6000" xr2:uid="{605BCDCA-EFC2-4ECE-A6BC-485C2250009B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{605BCDCA-EFC2-4ECE-A6BC-485C2250009B}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$D$220</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -477,7 +480,7 @@
   <dimension ref="A1:D220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3567,6 +3570,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D220" xr:uid="{2C58FE3C-B284-4CDB-82B5-B63C3F361B41}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
